--- a/scenarios_update.xlsx
+++ b/scenarios_update.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU Chemnitz\Conferences\MNT-Pro Project\CSR 2025\Code and Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800DA11E-C112-4C03-BA2E-4D2D06B2F881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879826DA-334F-41AB-B8EA-D4A83E623129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,10 +556,6 @@
 (2 KB)</t>
   </si>
   <si>
-    <t>009b_1,csv
-(13 KB)</t>
-  </si>
-  <si>
     <t>012_1.csv
 (2 KB)</t>
   </si>
@@ -682,6 +678,10 @@
   </si>
   <si>
     <t>14983 KB</t>
+  </si>
+  <si>
+    <t>009b_1.csv
+(13 KB)</t>
   </si>
 </sst>
 </file>
@@ -849,26 +849,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1274,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R39" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="X49" sqref="X4:X49"/>
+    <sheetView tabSelected="1" topLeftCell="R28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="X49" sqref="X49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1307,35 +1307,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="25" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26" t="s">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
       <c r="R1" s="9" t="s">
         <v>6</v>
       </c>
@@ -1345,16 +1345,16 @@
       <c r="V1" s="2"/>
       <c r="W1" s="9"/>
       <c r="X1" s="9"/>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:77" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>27</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W2" s="12" t="s">
         <v>28</v>
@@ -1421,8 +1421,8 @@
       <c r="X2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
@@ -1576,12 +1576,14 @@
         <v>1696867</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="W4" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="W4" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="X4" s="28"/>
+      <c r="X4" s="24">
+        <v>26551</v>
+      </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
@@ -1648,10 +1650,10 @@
         <v>292103</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
+        <v>175</v>
+      </c>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
@@ -1718,10 +1720,10 @@
         <v>183088</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
+        <v>176</v>
+      </c>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
@@ -1788,10 +1790,10 @@
         <v>109750</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
+        <v>177</v>
+      </c>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="18"/>
     </row>
@@ -1858,10 +1860,10 @@
         <v>173073</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
+        <v>178</v>
+      </c>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
@@ -1928,10 +1930,10 @@
         <v>94050</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
+        <v>179</v>
+      </c>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
@@ -2000,12 +2002,14 @@
         <v>30594</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="W10" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W10" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="X10" s="28"/>
+      <c r="X10" s="24">
+        <v>4273</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
@@ -2072,10 +2076,10 @@
         <v>27769</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
+        <v>181</v>
+      </c>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
@@ -2144,12 +2148,14 @@
         <v>58393</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="W12" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="W12" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="X12" s="28"/>
+      <c r="X12" s="24">
+        <v>9302</v>
+      </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
@@ -2216,10 +2222,10 @@
         <v>58436</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
+        <v>183</v>
+      </c>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
@@ -2288,10 +2294,12 @@
       <c r="V14" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="W14" s="28" t="s">
+      <c r="W14" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="X14" s="28"/>
+      <c r="X14" s="24">
+        <v>14244</v>
+      </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
@@ -2340,8 +2348,8 @@
       <c r="V15" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
@@ -2390,8 +2398,8 @@
       <c r="V16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
@@ -2440,8 +2448,8 @@
       <c r="V17" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
@@ -2512,10 +2520,12 @@
       <c r="V18" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="W18" s="28" t="s">
+      <c r="W18" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="X18" s="28"/>
+      <c r="X18" s="24">
+        <v>16661</v>
+      </c>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
@@ -2562,8 +2572,8 @@
       <c r="V19" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
@@ -2610,8 +2620,8 @@
       <c r="V20" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
@@ -2658,8 +2668,8 @@
       <c r="V21" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
@@ -2730,10 +2740,12 @@
       <c r="V22" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="W22" s="28" t="s">
+      <c r="W22" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="X22" s="28"/>
+      <c r="X22" s="24">
+        <v>8520</v>
+      </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
@@ -2780,8 +2792,8 @@
       <c r="V23" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
@@ -2828,8 +2840,8 @@
       <c r="V24" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
@@ -2876,8 +2888,8 @@
       <c r="V25" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
@@ -2946,12 +2958,14 @@
         <v>271</v>
       </c>
       <c r="V26" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="W26" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="W26" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="X26" s="28"/>
+      <c r="X26" s="24">
+        <v>4585</v>
+      </c>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
@@ -3018,10 +3032,10 @@
         <v>317</v>
       </c>
       <c r="V27" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
+        <v>185</v>
+      </c>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
@@ -3088,10 +3102,10 @@
         <v>6299</v>
       </c>
       <c r="V28" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
+        <v>186</v>
+      </c>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
@@ -3158,10 +3172,10 @@
         <v>331</v>
       </c>
       <c r="V29" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
+        <v>187</v>
+      </c>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
@@ -3228,10 +3242,10 @@
         <v>311</v>
       </c>
       <c r="V30" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
+        <v>188</v>
+      </c>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
@@ -3298,10 +3312,10 @@
         <v>1034</v>
       </c>
       <c r="V31" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
+        <v>189</v>
+      </c>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
@@ -3368,10 +3382,10 @@
         <v>562</v>
       </c>
       <c r="V32" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
+        <v>190</v>
+      </c>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
@@ -3438,10 +3452,10 @@
         <v>412</v>
       </c>
       <c r="V33" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
+        <v>191</v>
+      </c>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
@@ -3508,12 +3522,14 @@
         <v>532</v>
       </c>
       <c r="V34" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="W34" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="W34" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="X34" s="28"/>
+      <c r="X34" s="24">
+        <v>4561</v>
+      </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
@@ -3580,10 +3596,10 @@
         <v>1072</v>
       </c>
       <c r="V35" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
+        <v>193</v>
+      </c>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
@@ -3650,10 +3666,10 @@
         <v>840</v>
       </c>
       <c r="V36" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
+        <v>194</v>
+      </c>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
@@ -3720,10 +3736,10 @@
         <v>28587</v>
       </c>
       <c r="V37" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
+        <v>195</v>
+      </c>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
@@ -3790,10 +3806,10 @@
         <v>922</v>
       </c>
       <c r="V38" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
+        <v>196</v>
+      </c>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
@@ -3860,10 +3876,10 @@
         <v>1477</v>
       </c>
       <c r="V39" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
+        <v>197</v>
+      </c>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
@@ -3930,10 +3946,10 @@
         <v>174</v>
       </c>
       <c r="V40" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
+        <v>198</v>
+      </c>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
@@ -4000,10 +4016,10 @@
         <v>1058</v>
       </c>
       <c r="V41" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
+        <v>199</v>
+      </c>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
@@ -4072,12 +4088,14 @@
         <v>343957</v>
       </c>
       <c r="V42" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W42" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="X42" s="1"/>
+      <c r="X42" s="1">
+        <v>701</v>
+      </c>
       <c r="Y42" s="17"/>
       <c r="Z42" s="1"/>
     </row>
@@ -4144,12 +4162,14 @@
         <v>186730</v>
       </c>
       <c r="V43" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="X43" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="X43" s="1">
+        <v>453</v>
+      </c>
       <c r="Y43" s="17"/>
       <c r="Z43" s="1"/>
     </row>
@@ -4216,12 +4236,14 @@
         <v>7254</v>
       </c>
       <c r="V44" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W44" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="X44" s="1"/>
+      <c r="X44" s="1">
+        <v>67</v>
+      </c>
       <c r="Y44" s="17"/>
       <c r="Z44" s="1"/>
     </row>
@@ -4288,12 +4310,14 @@
         <v>216007</v>
       </c>
       <c r="V45" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W45" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="X45" s="1"/>
+      <c r="X45" s="1">
+        <v>302</v>
+      </c>
       <c r="Y45" s="17"/>
       <c r="Z45" s="1"/>
     </row>
@@ -4362,12 +4386,14 @@
         <v>252</v>
       </c>
       <c r="V46" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="X46" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="X46" s="1">
+        <v>67</v>
+      </c>
       <c r="Y46" s="17"/>
       <c r="Z46" s="1"/>
     </row>
@@ -4434,12 +4460,14 @@
         <v>323</v>
       </c>
       <c r="V47" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="X47" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="X47" s="1">
+        <v>11</v>
+      </c>
       <c r="Y47" s="17"/>
       <c r="Z47" s="1"/>
     </row>
@@ -4506,12 +4534,14 @@
         <v>399</v>
       </c>
       <c r="V48" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="X48" s="1"/>
+        <v>171</v>
+      </c>
+      <c r="X48" s="1">
+        <v>14</v>
+      </c>
       <c r="Y48" s="17"/>
       <c r="Z48" s="1"/>
     </row>
@@ -4578,12 +4608,14 @@
         <v>1921</v>
       </c>
       <c r="V49" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="X49" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="X49" s="1">
+        <v>39</v>
+      </c>
       <c r="Y49" s="17"/>
       <c r="Z49" s="1"/>
     </row>
@@ -4614,7 +4646,7 @@
       <c r="U50" s="19"/>
       <c r="V50" s="21"/>
       <c r="W50" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X50" s="19"/>
       <c r="Y50" s="19"/>
@@ -4902,33 +4934,28 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="W12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="W26:W33"/>
-    <mergeCell ref="X26:X33"/>
-    <mergeCell ref="W34:W41"/>
-    <mergeCell ref="X34:X41"/>
-    <mergeCell ref="W14:W17"/>
-    <mergeCell ref="X14:X17"/>
-    <mergeCell ref="W18:W21"/>
-    <mergeCell ref="X18:X21"/>
-    <mergeCell ref="W22:W25"/>
-    <mergeCell ref="X22:X25"/>
-    <mergeCell ref="P22:P25"/>
-    <mergeCell ref="Q22:Q25"/>
-    <mergeCell ref="B26:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="M22:M25"/>
-    <mergeCell ref="O22:O25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="Z1:Z2"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="W4:W9"/>
+    <mergeCell ref="X4:X9"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
     <mergeCell ref="O14:O17"/>
     <mergeCell ref="Q14:Q17"/>
     <mergeCell ref="B18:B21"/>
@@ -4945,28 +4972,33 @@
     <mergeCell ref="Q18:Q21"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="H14:H17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="W4:W9"/>
-    <mergeCell ref="X4:X9"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="P22:P25"/>
+    <mergeCell ref="Q22:Q25"/>
+    <mergeCell ref="B26:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="M22:M25"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="W26:W33"/>
+    <mergeCell ref="X26:X33"/>
+    <mergeCell ref="W34:W41"/>
+    <mergeCell ref="X34:X41"/>
+    <mergeCell ref="W14:W17"/>
+    <mergeCell ref="X14:X17"/>
+    <mergeCell ref="W18:W21"/>
+    <mergeCell ref="X18:X21"/>
+    <mergeCell ref="W22:W25"/>
+    <mergeCell ref="X22:X25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
